--- a/Resources/Data_Dictionnary.xlsx
+++ b/Resources/Data_Dictionnary.xlsx
@@ -186,9 +186,6 @@
     <t>Facility ID at which the encounter occurred</t>
   </si>
   <si>
-    <t>Length of stay for the encounter (bucketed)</t>
-  </si>
-  <si>
     <t xml:space="preserve">bmi         </t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">lengthofstay        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of stay for the encounter </t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1081,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>45</v>
@@ -1096,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>45</v>
@@ -1111,13 +1111,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1141,13 +1141,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>4</v>
@@ -1171,13 +1171,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4">
